--- a/DOM_Banner/output/dept_banner/Satinder Singh_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Satinder Singh_2022.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Article26 October 2022Open Access Source DataTransparent process A high-resolution 3D atlas of the spectrum of tuberculous and COVID-19 lung lesions Gordon Wells Gordon Wells orcid.org/0000-0003-2328-5208 Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Contribution: Conceptualization, Formal analysis, Funding acquisition, ​Investigation, Visualization, Methodology, Writing - original draft, Writing - review &amp; editing Search for more papers by this author Joel N Glasgow Joel N Glasgow orcid.org/0000-0002-2842-7917 Department of Microbiology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: ​Investigation, Writing - original draft, Project administration, Writing - review &amp; editing Search for more papers by this author Kievershen Nargan Kievershen Nargan Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Contribution: Validation, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Kapongo Lumamba Kapongo Lumamba Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Contribution: Data curation, ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Rajhmun Madansein Rajhmun Madansein orcid.org/0000-0001-7306-1304 Inkosi Albert Luthuli Central Hospital and University of KwaZulu-Natal, Durban, South Africa Contribution: Validation, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Kameel Maharaj Kameel Maharaj Inkosi Albert Luthuli Central Hospital and University of KwaZulu-Natal, Durban, South Africa Contribution: Formal analysis, ​Investigation, Writing - review &amp; editing Search for more papers by this author Leon Y Perumal Leon Y Perumal Perumal &amp; Partners Radiologists, Ahmed Al-Kadi Private Hospital, Durban, South Africa Contribution: Resources, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Malcolm Matthew Malcolm Matthew orcid.org/0000-0002-1791-9238 Perumal &amp; Partners Radiologists, Ahmed Al-Kadi Private Hospital, Durban, South Africa Contribution: Resources, Formal analysis, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Robert L Hunter Robert L Hunter Department of Pathology and Laboratory Medicine, University of Texas Health Sciences Center at Houston, Houston, TX, USA Contribution: Validation, ​Investigation, Writing - review &amp; editing Search for more papers by this author Hayden Pacl Hayden Pacl orcid.org/0000-0003-2303-6623 Medical Scientist Training Program, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Jacelyn E Peabody Lever Jacelyn E Peabody Lever orcid.org/0000-0003-3490-8474 Medical Scientist Training Program, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Denise D Stanford Denise D Stanford orcid.org/0000-0003-4044-2113 Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA Cystic Fibrosis Research Center, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Satinder P Singh Satinder P Singh orcid.org/0000-0001-5179-0856 Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA Department of Radiology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Prachi Bajpai Prachi Bajpai Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Upender Manne Upender Manne orcid.org/0000-0002-1545-3032 Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Paul V Benson Paul V Benson orcid.org/0000-0002-3819-6884 Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, Formal analysis, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Steven M Rowe Steven M Rowe orcid.org/0000-0001-9045-0133 Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA Cystic Fibrosis Research Center, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Stephan le Roux Stephan le Roux orcid.org/0000-0002-5617-8137 Bruker Belgium NV, Kontich, Belgium Contribution: ​Investigation, Visualization, Methodology, Writing - review &amp; editing Search for more papers by this author Alex Sigal Alex Sigal orcid.org/0000-0001-8571-2004 Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Contribution: Resources, Writing - review &amp; editing Search for more papers by this author Muofhe Tshibalanganda Muofhe Tshibalanganda orcid.org/0000-0003-1933-5698 Research Group 3D Innovation, Physics Department, Stellenbosch University, Stellenbosch, South Africa Contribution: Resources, ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Carlyn Wells Carlyn Wells CT Scanner Facility, Central Analytical Facilities, Stellenbosch University, Stellenbosch, South Africa Contribution: ​Investigation, Visualization, Methodology, Writing - review &amp; editing Search for more papers by this author Anton du Plessis Anton du Plessis orcid.org/0000-0002-4370-8661 Research Group 3D Innovation, Physics Department, Stellenbosch University, Stellenbosch, South Africa Object Research Systems, Montreal, QC, Canada Contribution: Resources, ​Investigation, Visualization, Methodology, Writing - review &amp; editing Search for more papers by this author Mpumelelo Msimang Mpumelelo Msimang Department of Anatomical Pathology, National Health Laboratory Service, Inkosi Albert Luthuli Central Hospital, Durban, South Africa Contribution: Resources, Formal analysis, ​Investigation, Writing - review &amp; editing Search for more papers by this author Threnesan Naidoo Threnesan Naidoo orcid.org/0000-0002-1864-4301 Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Department of Anatomical Pathology, National Health Laboratory Service, Inkosi Albert Luthuli Central Hospital, Durban, South Africa Department of Laboratory Medicine &amp; Pathology, Walter Sisulu University, Eastern Cape, South Africa Contribution: Conceptualization, Resources, Formal analysis, Supervision, Validation, ​Investigation, Methodology, Writing - original draft, Writing - review &amp; editing Search for more papers by this author Adrie J C Steyn Corresponding Author Adrie J C Steyn [email protected] orcid.org/0000-0001-9177-8827 Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Department of Microbiology, University of Alabama at Birmingham, Birmingham, AL, USA Centers for AIDS Research and Free Radical Biology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Conceptualization, Resources, Supervision, Funding acquisition, ​Investigation, Methodology, Writing - original draft, Project administration, Writing - review &amp; editing Search for more papers by this author Gordon Wells Gordon Wells orcid.org/0000-0003-2328-5208 Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Contribution: Conceptualization, Formal analysis, Funding acquisition, ​Investigation, Visualization, Methodology, Writing - original draft, Writing - review &amp; editing Search for more papers by this author Joel N Glasgow Joel N Glasgow orcid.org/0000-0002-2842-7917 Department of Microbiology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: ​Investigation, Writing - original draft, Project administration, Writing - review &amp; editing Search for more papers by this author Kievershen Nargan Kievershen Nargan Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Contribution: Validation, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Kapongo Lumamba Kapongo Lumamba Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Contribution: Data curation, ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Rajhmun Madansein Rajhmun Madansein orcid.org/0000-0001-7306-1304 Inkosi Albert Luthuli Central Hospital and University of KwaZulu-Natal, Durban, South Africa Contribution: Validation, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Kameel Maharaj Kameel Maharaj Inkosi Albert Luthuli Central Hospital and University of KwaZulu-Natal, Durban, South Africa Contribution: Formal analysis, ​Investigation, Writing - review &amp; editing Search for more papers by this author Leon Y Perumal Leon Y Perumal Perumal &amp; Partners Radiologists, Ahmed Al-Kadi Private Hospital, Durban, South Africa Contribution: Resources, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Malcolm Matthew Malcolm Matthew orcid.org/0000-0002-1791-9238 Perumal &amp; Partners Radiologists, Ahmed Al-Kadi Private Hospital, Durban, South Africa Contribution: Resources, Formal analysis, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Robert L Hunter Robert L Hunter Department of Pathology and Laboratory Medicine, University of Texas Health Sciences Center at Houston, Houston, TX, USA Contribution: Validation, ​Investigation, Writing - review &amp; editing Search for more papers by this author Hayden Pacl Hayden Pacl orcid.org/0000-0003-2303-6623 Medical Scientist Training Program, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Jacelyn E Peabody Lever Jacelyn E Peabody Lever orcid.org/0000-0003-3490-8474 Medical Scientist Training Program, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Denise D Stanford Denise D Stanford orcid.org/0000-0003-4044-2113 Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA Cystic Fibrosis Research Center, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Satinder P Singh Satinder P Singh orcid.org/0000-0001-5179-0856 Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA Department of Radiology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Prachi Bajpai Prachi Bajpai Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Upender Manne Upender Manne orcid.org/0000-0002-1545-3032 Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Paul V Benson Paul V Benson orcid.org/0000-0002-3819-6884 Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, Formal analysis, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Steven M Rowe Steven M Rowe orcid.org/0000-0001-9045-0133 Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA Cystic Fibrosis Research Center, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Resources, ​Investigation, Methodology, Writing - review &amp; editing Search for more papers by this author Stephan le Roux Stephan le Roux orcid.org/0000-0002-5617-8137 Bruker Belgium NV, Kontich, Belgium Contribution: ​Investigation, Visualization, Methodology, Writing - review &amp; editing Search for more papers by this author Alex Sigal Alex Sigal orcid.org/0000-0001-8571-2004 Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Contribution: Resources, Writing - review &amp; editing Search for more papers by this author Muofhe Tshibalanganda Muofhe Tshibalanganda orcid.org/0000-0003-1933-5698 Research Group 3D Innovation, Physics Department, Stellenbosch University, Stellenbosch, South Africa Contribution: Resources, ​Investigation, Visualization, Writing - review &amp; editing Search for more papers by this author Carlyn Wells Carlyn Wells CT Scanner Facility, Central Analytical Facilities, Stellenbosch University, Stellenbosch, South Africa Contribution: ​Investigation, Visualization, Methodology, Writing - review &amp; editing Search for more papers by this author Anton du Plessis Anton du Plessis orcid.org/0000-0002-4370-8661 Research Group 3D Innovation, Physics Department, Stellenbosch University, Stellenbosch, South Africa Object Research Systems, Montreal, QC, Canada Contribution: Resources, ​Investigation, Visualization, Methodology, Writing - review &amp; editing Search for more papers by this author Mpumelelo Msimang Mpumelelo Msimang Department of Anatomical Pathology, National Health Laboratory Service, Inkosi Albert Luthuli Central Hospital, Durban, South Africa Contribution: Resources, Formal analysis, ​Investigation, Writing - review &amp; editing Search for more papers by this author Threnesan Naidoo Threnesan Naidoo orcid.org/0000-0002-1864-4301 Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Department of Anatomical Pathology, National Health Laboratory Service, Inkosi Albert Luthuli Central Hospital, Durban, South Africa Department of Laboratory Medicine &amp; Pathology, Walter Sisulu University, Eastern Cape, South Africa Contribution: Conceptualization, Resources, Formal analysis, Supervision, Validation, ​Investigation, Methodology, Writing - original draft, Writing - review &amp; editing Search for more papers by this author Adrie J C Steyn Corresponding Author Adrie J C Steyn [email protected] orcid.org/0000-0001-9177-8827 Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa Department of Microbiology, University of Alabama at Birmingham, Birmingham, AL, USA Centers for AIDS Research and Free Radical Biology, University of Alabama at Birmingham, Birmingham, AL, USA Contribution: Conceptualization, Resources, Supervision, Funding acquisition, ​Investigation, Methodology, Writing - original draft, Project administration, Writing - review &amp; editing Search for more papers by this author Author Information Gordon Wells1, Joel N Glasgow2, Kievershen Nargan1, Kapongo Lumamba1, Rajhmun Madansein3, Kameel Maharaj3, Leon Y Perumal4, Malcolm Matthew4, Robert L Hunter5, Hayden Pacl6, Jacelyn E Peabody Lever6, Denise D Stanford7,8, Satinder P Singh7,9, Prachi Bajpai10, Upender Manne10, Paul V Benson10, Steven M Rowe7,8, Stephan le Roux11, Alex Sigal1, Muofhe Tshibalanganda12, Carlyn Wells13, Anton Plessis12,14, Mpumelelo Msimang15, Threnesan Naidoo1,15,16 and Adrie J C Steyn *,1,2,17 1Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa 2Department of Microbiology, University of Alabama at Birmingham, Birmingham, AL, USA 3Inkosi Albert Luthuli Central Hospital and University of KwaZulu-Natal, Durban, South Africa 4Perumal &amp; Partners Radiologists, Ahmed Al-Kadi Private Hospital, Durban, South Africa 5Department of Pathology and Laboratory Medicine, University of Texas Health Sciences Center at Houston, Houston, TX, USA 6Medical Scientist Training Program, University of Alabama at Birmingham, Birmingham, AL, USA 7Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA 8Cystic Fibrosis Research Center, University of Alabama at Birmingham, Birmingham, AL, USA 9Department of Radiology, University of Alabama at Birmingham, Birmingham, AL, USA 10Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA 11Bruker Belgium NV, Kontich, Belgium 12Research Group 3D Innovation, Physics Department, Stellenbosch University, Stellenbosch, South Africa 13CT Scanner Facility, Central Analytical Facilities, Stellenbosch University, Stellenbosch, South Africa 14Object Research Systems, Montreal, QC, Canada 15Department of Anatomical Pathology, National Health Laboratory Service, Inkosi Albert Luthuli Central Hospital, Durban, South Africa 16Department of Laboratory Medicine &amp; Pathology, Walter Sisulu University, Eastern Cape, South Africa 17Centers for AIDS Research and Free Radical Biology, University of Alabama at Birmingham, Birmingham, AL, USA *Corresponding author. Tel: +27 31 5210611; E-mail: [email protected] EMBO Mol Med (2022)14:e16283https://doi.org/10.15252/emmm.202216283 See also: A Agrawal &amp; D Agrawal (December 2022) PDFDownload PDF of article text and main figures. Peer ReviewDownload a summary of the editorial decision process including editorial decision letters, reviewer comments and author responses to feedback. ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinked InMendeleyWechatReddit Figures &amp; Info Abstract Our current understanding of the spectrum of TB and COVID-19 lesions in the human lung is limited by a reliance on low-resolution imaging platforms that cannot provide accurate 3D representations of lesion types within the context of the whole lung. To characterize TB and COVID-19 lesions in 3D, we applied micro/nanocomputed tomography to surgically resected, postmortem, and paraffin-embedded human lung tissue. We define a spectrum of TB pathologies, including cavitary lesions, calcium deposits outside and inside necrotic granulomas and mycetomas, and vascular rearrangement. We identified an unusual spatial arrangement of vasculature within an entire COVID-19 lobe, and 3D segmentation of blood vessels revealed microangiopathy associated with hemorrhage. Notably, segmentation of pathological anomalies reveals hidden pathological structures that might otherwise be disregarded, demonstrating a powerful method to visualize pathologies in 3D in TB lung tissue and whole COVID-19 lobes. These findings provide unexpected new insight into the spatial organization of the spectrum of TB and COVID-19 lesions within the framework of the entire lung. Synopsis 3D X-ray microscopy (micro-Computed Tomography) was used to establish an initial atlas of TB and COVID-19 lung lesion types in the human lung. Previously hidden features within polymorphic TB lesions were reconstructed in 3D, which revealed a complex branched morphology reminiscent of airways. Varying degrees of calcification could be readily observed within necrotic TB lesions and mycetomas. Loss of central vasculature and abnormalities in peripheral vasculature were observed in COVID-19 lungs. 3D μCT imaging was successfully applied to formalin-fixed and paraffin-embedded tissue. Thus, this technique could be applied to established libraries of human tissue. The paper explained Problem Our current understanding of pulmonary diseases, such as tuberculosis (TB) and COVID-19, is limited by conventional histological methods based on 2D assessment of small regions of interest. To aid diagnosis and identification of disease-specific lesions, high-resolution three-dimensional (3D) imaging techniques are needed to visualize the microarchitecture of pulmonary TB and COVID-19 lesions within the context of the whole lung. Results We tested the ability of X-ray microscopy (also known as micro-Computed Tomography, μCT) to complement traditional histology and provide 3D imaging of lung pathology. Several findings were made regarding the 3D spectrum of TB lesions, including granuloma shape, calcium deposition, cavitation, and the identification of histologically unattributed pathophysiological features that were not detectable by conventional histology. In COVID-19 lungs, we observed disproportionately dense and dilated vasculature close to the pleural surface in whole lobes. Further, we successfully applied μCT to formalin-fixed tissue, including paraffin-embedded samples. Impact This study demonstrates that μCT is a powerful imaging tool for studying TB and COVID-19 pathology at near-histological levels in 3D. We anticipate that μCT could be used to establish a 3D reference atlas of the human tuberculous lung derived from digitized 3D image libraries of tissue, organs from new patients, and existing fixed-tissue libraries. This atlas could be used to identify novel imaging biomarkers based on patterns of differential radio-opacities. Lastly, we expect an atlas of TB and COVID-19 lesion types will inform our understanding of the failure of localized immunity and be an important resource for therapeutic and diagnostic development. Introduction Since the discovery of Mycobacterium tuberculosis (Mtb) in the 1880s, histological methods have been the primary means of investigating tuberculosis (TB) pathophysiology at the cellular level (Rich, 1944; Canetti, 1955). This low-throughput approach provides excellent two-dimensional (2D) results for very small regions of interest but cannot contextualize larger TB lesions within the greater lung architecture. Given that the full spectrum of TB lesions is present in an active human TB lung, the limitations of conventional histology, especially the ability to examine only small areas, hinder more detailed examination of human TB pathophysiology. Notably, the complete spectrum of TB lesions has not yet been systematically defined. This major gap in our knowledge has been perpetuated by a reliance on animal models which do not fully replicate human pulmonary TB and a paucity of human TB lung tissues for study (Hunter, 2011, 2016). To aid diagnosis and identification of disease-specific lesions, high-resolution three-dimensional (3D) imaging techniques are needed to visualize the microarchitecture of pulmonary TB within the context of the whole lung. Establishing an atlas of the spectrum of TB lesions in 3D is expected to facilitate mapping of the pathophysiological changes in the human tuberculous lung, improve our understanding of how the localized immune response fails to control TB, and guide the design of more accurate diagnostics and novel interventions. Tuberculosis has been the deadliest infectious disease for many years but was surpassed by COVID-19 in 2020 (Roberts, 2021). Our understanding of the range of lung pathologies associated with severe COVID-19 is at an early stage. Importantly, a renewed interest in autopsies has led to critical insights into the mechanisms of COVID-19 (Sperhake, 2020; Borczuk, 2021), and stands in stark contrast to the lack of modern postmortem TB studies. Similar to TB, clinical imaging modalities have also been applied to COVID-19 (Qin et al, 2020; Dhawan et al, 2021). High-resolution imaging of Mtb- and SARS-CoV-2-infected tissue and lesions could identify new markers for routine clinical imaging, complement standard histological analyses, and may provide an important resource for therapeutic intervention. One approach to establish a 3D atlas of pathogen-specific pathophysiology is X-ray computed tomography (CT), an invaluable tool for nondestructive imaging in medical diagnosis (Lee et al, 2010; Marchiori et al, 2011; Yeh et al, 2012). Compared to medical CT, nano/micro-CT (n/μCT) uses higher energy X-rays and smaller rotations between sample and detector (&lt; 1°) to generate much higher resolution (du Plessis et al, 2017; O'Sullivan et al, 2018). Imaging of diseased lung with μCT has been demonstrated in live mice (Ruscitti et al, 2017) and human lung tissue with TB (Wells et al, 2021), COVID-19 (Ackermann et al, 2020, 2022; Walsh et al, 2021), and COPD (Ikura et al, 2004; Boon et al, 2016; Thiboutot et al, 2019), although most studies examined small sections. Ackerman et al. reported hierarchical phase-contrast tomography of entire organs, including COVID-19 lungs, using the Extremely Brilliant Source of the European Synchrotron Radiation Facility (EBS-ESRF) (Ackermann et al, 2020, 2022). While this unique instrument allows highly detailed visualization of soft tissue, it is not available to most researchers. However, the suitability of μCT for examining the spectrum of TB or COVID-19 lesions and contextualizing microscopic findings within whole lobes has not been reported and represents a gap in our knowledge. High-resolution computed X-ray tomography (HRCT) is used clinically to aid TB diagnosis (Bajaj &amp; Tombach, 2017; Nakamoto et al, 2018) and can detect phenotypes of Mtb infection such as bronchiectasis, cavity formation, and tissue consolidation (Im et al, 1993), but at lower resolution than μCT (Sundaram et al, 2010; Yanagawa et al, 2010). Also, clinically relevant but of low resolution, low-energy X-ray or “soft” X-ray (STX) CT is used for soft tissue imaging, such as the detection of masses in mammography (Buzug, 2011). Soft tissues attenuate X-rays poorly compared to more electron-dense materials like metal or bone. Imaging quality can be improved by suffusing tissue with contrast agents with high atomic mass like iodine or heavy metals. These interact to different degrees with different tissues and cellular components, thus improving internal contrast with X-ray imaging (Pauwels et al, 2013; O'Sullivan et al, 2018). The purpose of this study was to explore the ability of μCT imaging to augment traditional histopathology of human TB and COVID-19 lung with 3D context and radio-opacity, and to assess the potential of μCT to characterize the spectrum of TB and COVID-19 lesions. Here, we use routine clinical HCRT, STX, and experimental μ/nCT to present a 3D atlas of the spectrum of lesions in the human TB lung and assessed the capacity of μCT to image formalin-fixed, paraffin-embedded (FFPE) resected TB lung tissues. We also applied μCT with contrast staining to COVID-19 human postmortem whole lungs. We demonstrate the utility of μCT for direct visualization and precise description of the continuum of lesions in detail, providing unanticipated new knowledge that advances our understanding of pulmonary infections. Results Parallel imaging modalities applied to human pulmonary TB tissue Patient and lung sample selection is described in Appendix Table S1. Initial examination of samples revealed gross architectural distortion, conspicuous upper lobe cavitation, bronchiectasis, lung shrinkage, and fibrosis (Appendix Figs S1A–C, S2C, and S5). While various modalities of computed tomography have been used clinically to appraise TB (Ankrah et al, 2016; Esmail et al, 2016; Malherbe et al, 2016), the suitability of these for examining TB lung tissue ex vivo remains unknown. Therefore, we assessed the ability of HRCT, STX, and μCT to image human pulmonary TB ex vivo (Fig 1A–D). We examined a tissue sample with pathological features consistent with TB, including cavitation and calcification (Fig 1E, Appendix Fig S1A). STX revealed lesions (Fig 1F) as denser regions. These lesions were also revealed by post-processing of HRCT (Fig 1G and H) with preset instrument settings (presets) intended for clinical diagnosis. Highly electron-dense areas in Fig 1G and H coincide with tubercles, calcifications, and necrotic lesions in the histopathological analysis (Fig 1I–M). The densest areas correspond to white nodules in the formalin-fixed tissue (Fig 1E) some of which were confirmed to be calcification (Fig 1K and M). Figure 1. Comparison of HRCT, STX, and μCT imaging of human TB lung A. HRCT scanner: Siemens Somatom Perspective (64-slice). B. Mammography STX scanner: Siemens Mammomat Inspiration System. C. μCT scanner: General Electric Phoenix V|tome|x L240. D. nCT scanner: General Electric Phoenix Nanotom S. E–M. Imaging of Sample A exhibiting caseous necrosis and cavitation without contrast staining. (E) Macro-image. Necrotic and calcified legions are indicated by white arrows. (F) STX scan. Brighter regions correspond, in part, with regions of caseous necrosis that can be observed on the surface. Necrotic and calcified legions are indicated by red arrows. (G, H) Post-processed HRCT scans. Volumes of higher density can also be detected beneath the sample surface, and certain visualization presets within the HRCT software designed to aid clinical diagnosis can aid visualization of TB pathology. These visualizations, (G) the “Onco-thorax” preset, and (H) the “Onco-liver” preset, correspond, in part, with surface lesions and presumably with other denser tissue below the sample surface. Necrotic and calcified legions are indicated by the red arrows. (I) H&amp;E histology of (E) (composite of two standard slides). (J–M) Close-ups of boxed lesions in (I) corresponding to regions of high-density visible in HRCT and STX. Calcification is indicated by dark-blue/purple lakes in (K) and (M). N–U. Imaging of a sample B exhibiting cavitation, mycetoma, and caseous lesions from a sample with iodine contrast staining (Lugol's solution). The missing portion in panels P–U was excised for histol</t>
+          <t>Our current understanding of the spectrum of TB and COVID-19 lesions in the human lung is limited by a reliance on low-resolution imaging platforms that cannot provide accurate 3D representations of lesion types within the context of the whole lung. To characterize TB and COVID-19 lesions in 3D, we applied micro/nanocomputed tomography to surgically resected, postmortem, and paraffin-embedded human lung tissue. We define a spectrum of TB pathologies, including cavitary lesions, calcium deposits outside and inside necrotic granulomas and mycetomas, and vascular rearrangement. We identified an unusual spatial arrangement of vasculature within an entire COVID-19 lobe, and 3D segmentation of blood vessels revealed microangiopathy associated with hemorrhage. Notably, segmentation of pathological anomalies reveals hidden pathological structures that might otherwise be disregarded, demonstrating a powerful method to visualize pathologies in 3D in TB lung tissue and whole COVID-19 lobes. These findings provide unexpected new insight into the spatial organization of the spectrum of TB and COVID-19 lesions within the framework of the entire lung.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -665,9 +665,9 @@
       <c r="X2" t="inlineStr">
         <is>
           <t>c(funder = "https://openalex.org/F4320306137", funder_display_name = "Bill and Melinda Gates Foundation", award_id = "OPP1116944", funder = "https://openalex.org/F4320306137", funder_display_name = "Bill and Melinda Gates Foundation", award_id = "OPP1130017", funder = "https://openalex.org/F4320306168", funder_display_name = "Cystic Fibrosis Foundation", award_id = "ROWE19R0", funder = "https://openalex.org/F4320307853", funder_display_name = "CRDF Global", funder = "https://openalex.org/F4320320671", 
-funder_display_name = "National Research Foundation", funder = "https://openalex.org/F4320320672", funder_display_name = "South African Medical Research Council", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "R21A127182", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "2T32HL105346‐11A1", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", 
-award_id = "R33AI138280", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "R01Al111940", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "U01 HL152978", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "5F31HL146083‐02", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", 
-award_id = "R35 HL135816‐04S1", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "3T32GM008361‐30S1", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "P30 DK072482", funder = "https://openalex.org/F4320334435", funder_display_name = "Center for AIDS Research, University of Alabama at Birmingham")</t>
+funder_display_name = "National Research Foundation", funder = "https://openalex.org/F4320320672", funder_display_name = "South African Medical Research Council", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "U01 HL152978", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "5F31HL146083‐02", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", 
+award_id = "R21A127182", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "P30 DK072482", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "3T32GM008361‐30S1", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "R33AI138280", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", 
+award_id = "2T32HL105346‐11A1", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "R01Al111940", funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health", award_id = "R35 HL135816‐04S1", funder = "https://openalex.org/F4320334435", funder_display_name = "Center for AIDS Research, University of Alabama at Birmingham")</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4382894326", "https://openalex.org/W4206669628", "https://openalex.org/W3036314732", "https://openalex.org/W4205317059", "https://openalex.org/W3009669391", "https://openalex.org/W3198183218", "https://openalex.org/W3081785542", "https://openalex.org/W3176864053", "https://openalex.org/W3084498529", "https://openalex.org/W3020699490")</t>
+          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3036314732", "https://openalex.org/W4205317059", "https://openalex.org/W3009669391", "https://openalex.org/W4382894326", "https://openalex.org/W3198183218", "https://openalex.org/W3081785542", "https://openalex.org/W3176864053", "https://openalex.org/W3084498529", "https://openalex.org/W3171943759")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Satinder Singh_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Satinder Singh_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa.; Department of Microbiology, University of Alabama at Birmingham, Birmingham, AL, USA.; Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa.; Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa.; Inkosi Albert Luthuli Central Hospital and University of KwaZulu-Natal, Durban, South Africa.; Inkosi Albert Luthuli Central Hospital and University of KwaZulu-Natal, Durban, South Africa.; Perumal &amp; Partners Radiologists, Ahmed Al-Kadi Private Hospital, Durban, South Africa.; Perumal &amp; Partners Radiologists, Ahmed Al-Kadi Private Hospital, Durban, South Africa.; Department of Pathology and Laboratory Medicine, University of Texas Health Sciences Center at Houston, Houston, TX, USA.; Medical Scientist Training Program, University of Alabama at Birmingham, Birmingham, AL, USA.; Medical Scientist Training Program, University of Alabama at Birmingham, Birmingham, AL, USA.; Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA.; Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA.; Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA.; Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA.; Department of Pathology, University of Alabama at Birmingham, Birmingham, AL, USA.; Department of Medicine, University of Alabama at Birmingham, Birmingham, AL, USA.; Bruker Belgium NV, Kontich, Belgium.; Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa.; Research Group 3D Innovation, Physics Department, Stellenbosch University, Stellenbosch, South Africa.; CT Scanner Facility, Central Analytical Facilities, Stellenbosch University, Stellenbosch, South Africa.; Object Research Systems, Montreal, QC, Canada.; Research Group 3D Innovation, Physics Department, Stellenbosch University, Stellenbosch, South Africa.; Department of Anatomical Pathology, National Health Laboratory Service, Inkosi Albert Luthuli Central Hospital, Durban, South Africa.; Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa.; Department of Anatomical Pathology, National Health Laboratory Service, Inkosi Albert Luthuli Central Hospital, Durban, South Africa.; Department of Laboratory Medicine &amp; Pathology, Walter Sisulu University, Eastern Cape, South Africa.; Africa Health Research Institute, University of KwaZulu-Natal, Durban, South Africa.; Department of Microbiology, University of Alabama at Birmingham, Birmingham, AL, USA.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4307341701</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>A high‐resolution &lt;scp&gt;3D&lt;/scp&gt; atlas of the spectrum of tuberculous and &lt;scp&gt;COVID&lt;/scp&gt; ‐19 lung lesions</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-10-26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>EMBO Molecular Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.15252/emmm.202216283</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36285507</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.15252/emmm.202216283</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Emergency &amp; Hospital Medicine, Lehigh Valley Hospital-Cedar Crest, Allentown, PA 18103, USA; Morsani College of Medicine, University of South Florida, Tampa, FL 33612, USA; Department of Medicine, Lehigh Valley Hospital-Cedar Crest, Allentown, PA 18013, USA; Department of Medicine, Lehigh Valley Hospital-Cedar Crest, Allentown, PA 18013, USA; Department of Emergency &amp; Hospital Medicine, Lehigh Valley Hospital-Cedar Crest, Allentown, PA 18103, USA; Department of Medicine, Lehigh Valley Hospital-Cedar Crest, Allentown, PA 18013, USA; Department of Emergency &amp; Hospital Medicine, Lehigh Valley Hospital-Cedar Crest, Allentown, PA 18103, USA; Morsani College of Medicine, University of South Florida, Tampa, FL 33612, USA; Department of Emergency &amp; Hospital Medicine, Lehigh Valley Hospital-Cedar Crest, Allentown, PA 18103, USA; Morsani College of Medicine, University of South Florida, Tampa, FL 33612, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294219042</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Inpatient palliative care encounter and 30-day readmission among hospitalizations for heart failure</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Future Cardiology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Future Medicine</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2217/fca-2022-0041</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36052818</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2217/fca-2022-0041</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213219307</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Epidemiology of Cleft Lip and Palate among Infants Born in Chandigarh</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-02-19</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Postgraduate Medicine, Education and Research</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.5005/jp-journals-10028-1550</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.5005/jp-journals-10028-1550</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229459532</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>ACR Appropriateness Criteria® Dyspnea-Suspected Cardiac Origin (Ischemia Already Excluded): 2021 Update</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of the American College of Radiology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacr.2022.02.014</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35550804</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacr.2022.02.014</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>From the Department of Radiology, University of Alabama at Birmingham, 619 19th St S, Birmingham, AL 35294 (J.D.P., M.A., P.P.M., A.N.A., S.P.S.); and University of Alabama at Birmingham School of Medicine, Birmingham, Ala (C.M.W.).; From the Department of Radiology, University of Alabama at Birmingham, 619 19th St S, Birmingham, AL 35294 (J.D.P., M.A., P.P.M., A.N.A., S.P.S.); and University of Alabama at Birmingham School of Medicine, Birmingham, Ala (C.M.W.).; From the Department of Radiology, University of Alabama at Birmingham, 619 19th St S, Birmingham, AL 35294 (J.D.P., M.A., P.P.M., A.N.A., S.P.S.); and University of Alabama at Birmingham School of Medicine, Birmingham, Ala (C.M.W.).; From the Department of Radiology, University of Alabama at Birmingham, 619 19th St S, Birmingham, AL 35294 (J.D.P., M.A., P.P.M., A.N.A., S.P.S.); and University of Alabama at Birmingham School of Medicine, Birmingham, Ala (C.M.W.).; From the Department of Radiology, University of Alabama at Birmingham, 619 19th St S, Birmingham, AL 35294 (J.D.P., M.A., P.P.M., A.N.A., S.P.S.); and University of Alabama at Birmingham School of Medicine, Birmingham, Ala (C.M.W.).; From the Department of Radiology, University of Alabama at Birmingham, 619 19th St S, Birmingham, AL 35294 (J.D.P., M.A., P.P.M., A.N.A., S.P.S.); and University of Alabama at Birmingham School of Medicine, Birmingham, Ala (C.M.W.).</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4304957794</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Adult Partial Anomalous Pulmonary Venous Return Repair and Superior Vena Cava Syndrome: A Delayed Complication of the Warden Procedure</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Radiology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Radiological Society of North America</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1148/ryct.220077</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36339061</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1148/ryct.220077</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Amity School of Hospitality, Amity University Uttar Pradesh, Sector - 125, Noida, Gautam Buddha Nagar, Uttar Pradesh, 201303, India; University School of Business (USB), Chandigarh University, Gharuan, Punjab, 140413, India</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312282504</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Factors responsible for failure of food tech start-ups in India</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>International Journal of Entrepreneurship and Small Business</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Inderscience Publishers</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1504/ijesb.2022.126724</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1504/ijesb.2022.126724</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
